--- a/code/NAllDaily/每日收益.xlsx
+++ b/code/NAllDaily/每日收益.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -56,19 +56,34 @@
     <t>日涨跌幅</t>
   </si>
   <si>
+    <t>昨日净值</t>
+  </si>
+  <si>
+    <t>今日净值</t>
+  </si>
+  <si>
+    <t>20250610</t>
+  </si>
+  <si>
     <t>尊享2号</t>
   </si>
   <si>
     <t>中泰证券</t>
   </si>
   <si>
-    <t>99.92%（99.92%）</t>
+    <t>99.96%</t>
+  </si>
+  <si>
+    <t>-0.82%</t>
   </si>
   <si>
     <t>山西证券</t>
   </si>
   <si>
-    <t>100.00%（100.00%）</t>
+    <t>99.99%</t>
+  </si>
+  <si>
+    <t>-0.25%</t>
   </si>
   <si>
     <t>九章量化</t>
@@ -77,16 +92,91 @@
     <t>国信证券</t>
   </si>
   <si>
-    <t>99.99%(11.30%)</t>
+    <t>99.98%(11.29%)</t>
+  </si>
+  <si>
+    <t>-0.64%</t>
   </si>
   <si>
     <t>国泰海通</t>
   </si>
   <si>
-    <t>100.00%(88.70%)</t>
+    <t>100.00%(67.31%)</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>99.98%(21.40%)</t>
+  </si>
+  <si>
+    <t>-1.31%</t>
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>-0.74%</t>
+  </si>
+  <si>
+    <t>20250609</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>1.45%</t>
+  </si>
+  <si>
+    <t>99.97%</t>
+  </si>
+  <si>
+    <t>1.25%</t>
+  </si>
+  <si>
+    <t>100.00%(11.27%)</t>
+  </si>
+  <si>
+    <t>1.36%</t>
+  </si>
+  <si>
+    <t>75.72%(88.73%)</t>
+  </si>
+  <si>
+    <t>1.55%</t>
+  </si>
+  <si>
+    <t>78.46%</t>
+  </si>
+  <si>
+    <t>1.53%</t>
+  </si>
+  <si>
+    <t>20250606</t>
+  </si>
+  <si>
+    <t>0.93%</t>
+  </si>
+  <si>
+    <t>0.62%</t>
+  </si>
+  <si>
+    <t>100.00%(11.29%)</t>
+  </si>
+  <si>
+    <t>0.90%</t>
+  </si>
+  <si>
+    <t>99.98%(88.71%)</t>
+  </si>
+  <si>
+    <t>0.89%</t>
+  </si>
+  <si>
+    <t>99.98%</t>
+  </si>
+  <si>
+    <t>45,354.913.57</t>
   </si>
 </sst>
 </file>
@@ -99,7 +189,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +219,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -484,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -504,6 +612,69 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,181 +779,191 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,208 +1312,782 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
-    <col min="2" max="3" width="10.375" customWidth="1"/>
+    <col min="1" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="23" customHeight="1" spans="1:9">
-      <c r="A2" s="3">
-        <v>20250605</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0688</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10707352.66</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10703378.72</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3973.94</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>1.0776</v>
+      </c>
+      <c r="L2">
+        <f>K2*(1+I2)</f>
+        <v>1.06876368</v>
+      </c>
+      <c r="M2">
+        <f>E2/E12-1</f>
+        <v>-0.00817351210119766</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.2805</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44957365.3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44953573.39</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3791.91</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>1.2837</v>
+      </c>
+      <c r="L4">
+        <f>K4*(1+I4)</f>
+        <v>1.28049075</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.9826</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5204756.28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5203509.83</v>
+      </c>
+      <c r="G6" s="6">
+        <v>917.85</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <f>E6/E9</f>
+        <v>0.112861081387773</v>
+      </c>
+      <c r="L6">
+        <f>F6/E6</f>
+        <v>0.999760517124541</v>
+      </c>
+      <c r="M6" s="14">
+        <f>E6/E16-1</f>
+        <v>-0.00637057584729883</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>31042563.01</v>
+      </c>
+      <c r="F7" s="5">
+        <v>31042372.53</v>
+      </c>
+      <c r="G7" s="6">
+        <v>190.48</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <f>E7/E9</f>
+        <v>0.673133772626275</v>
+      </c>
+      <c r="L7">
+        <f>F7/E7</f>
+        <v>0.999993863908726</v>
+      </c>
+      <c r="M7" s="14">
+        <f>(E7-E17+10000000)/(E17-10000000)</f>
+        <v>-0.00576366242571723</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9869164.94</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9867114</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2050.94</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <f>E8/E9</f>
+        <v>0.214005145985952</v>
+      </c>
+      <c r="L8">
+        <f>F8/E8</f>
+        <v>0.999792187078393</v>
+      </c>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>46116484.23</v>
+      </c>
+      <c r="F9" s="5">
+        <v>46112996.36</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3159.27</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <f>F9/E9</f>
+        <v>0.999924368258807</v>
+      </c>
+      <c r="M9" s="14">
+        <f>E9/E18-1</f>
+        <v>-0.00740758115381857</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="11:14">
+      <c r="K10" s="15">
+        <v>1.9683</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="N10">
+        <f>K10*(1+I9)</f>
+        <v>1.95373458</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.0779</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10795590.55</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10795550.22</v>
+      </c>
+      <c r="G12" s="6">
+        <v>40.33</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>1.0625</v>
+      </c>
+      <c r="L12">
+        <f>K12*(1+I12)</f>
+        <v>1.07790625</v>
+      </c>
+      <c r="M12">
+        <f>E12/E22-1</f>
+        <v>0.0144522243980472</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:12">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.0125</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45070058.15</v>
+      </c>
+      <c r="F14" s="5">
+        <v>45057383.32</v>
+      </c>
+      <c r="G14" s="6">
+        <v>12674.83</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <f>F14/E14</f>
+        <v>0.999718774935727</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.9985</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5238126.16</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5238085.54</v>
+      </c>
+      <c r="G16" s="6">
+        <v>40.62</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <f>E16/E18</f>
+        <v>0.112743293470615</v>
+      </c>
+      <c r="L16">
+        <f>F16/E16</f>
+        <v>0.999992245318505</v>
+      </c>
+      <c r="M16" s="14">
+        <v>5121538.86</v>
+      </c>
+      <c r="N16">
+        <f>E16/M16-O1</f>
+        <v>1.02276411508083</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5">
+        <v>41222519.07</v>
+      </c>
+      <c r="F17" s="5">
+        <v>31213885.33</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10008633.74</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <f>E17/E18</f>
+        <v>0.887256706529385</v>
+      </c>
+      <c r="L17">
+        <f>F17/E17</f>
+        <v>0.757204703501881</v>
+      </c>
+      <c r="M17" s="14">
+        <v>40233374.71</v>
+      </c>
+      <c r="N17">
+        <f>E17/M17-1</f>
+        <v>0.0245851700765769</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:14">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46460645.23</v>
+      </c>
+      <c r="F18" s="5">
+        <v>36451970.87</v>
+      </c>
+      <c r="G18" s="6">
+        <v>10008674.36</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <f>F18/E18</f>
+        <v>0.784577370579922</v>
+      </c>
+      <c r="M18" s="14">
+        <v>45354913.57</v>
+      </c>
+      <c r="N18">
+        <f>E18/E28-1</f>
+        <v>0.0153227924923165</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="11:14">
+      <c r="K19" s="15">
+        <v>1.9683</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="N19">
+        <f>K19*(1+I18)</f>
+        <v>1.99841499</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.0625</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10641792.97</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10640709.06</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1083.91</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
         <v>1.0527</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6">
-        <v>10543332.3</v>
-      </c>
-      <c r="F2" s="6">
-        <v>10535185.1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>8147.2</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10">
-        <v>-0.0028</v>
-      </c>
-    </row>
-    <row r="3" ht="23" customHeight="1" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" ht="23" customHeight="1" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6">
-        <v>44239737.92</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44239461.66</v>
-      </c>
-      <c r="G4" s="7">
-        <v>276.26</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10">
-        <v>-0.0036</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="1" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" ht="23" customHeight="1" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="L22">
+        <f>K22*(1+I22)</f>
+        <v>1.06249011</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.0062</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5">
+        <v>44512825.54</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44512799.28</v>
+      </c>
+      <c r="G24" s="6">
+        <v>26.26</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:14">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.9688</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5167712.34</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5167614.48</v>
+      </c>
+      <c r="G26" s="6">
+        <v>17.46</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <f>E26/E28</f>
+        <v>0.112932054599574</v>
+      </c>
+      <c r="L26">
+        <f>F26/E26</f>
+        <v>0.99998106318743</v>
+      </c>
+      <c r="M26" s="14">
+        <v>5121538.86</v>
+      </c>
+      <c r="N26">
+        <f>E26/M26-1</f>
+        <v>0.00901554811203753</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:14">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5">
+        <v>40591769.84</v>
+      </c>
+      <c r="F27" s="5">
+        <v>40584106.77</v>
+      </c>
+      <c r="G27" s="6">
+        <v>7663.07</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <f>E27/E28</f>
+        <v>0.887067945400426</v>
+      </c>
+      <c r="L27">
+        <f>F27/E27</f>
+        <v>0.999811216164503</v>
+      </c>
+      <c r="M27" s="14">
+        <v>40233374.71</v>
+      </c>
+      <c r="N27">
+        <f>E27/M27-1</f>
+        <v>0.00890790624906046</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:14">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45759482.18</v>
+      </c>
+      <c r="F28" s="5">
+        <v>45751721.25</v>
+      </c>
+      <c r="G28" s="6">
+        <v>7680.53</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28">
+        <f>F28/E28</f>
+        <v>0.99983039733777</v>
+      </c>
+      <c r="M28" s="14">
+        <v>45354913.57</v>
+      </c>
+      <c r="N28">
+        <f>E28/M28-1</f>
+        <v>0.00892006131542056</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="13:14">
+      <c r="M29">
         <v>1.9514</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5121538.86</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5121005.1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>533.76</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10">
-        <v>-0.0022</v>
-      </c>
-    </row>
-    <row r="7" ht="23" customHeight="1" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6">
-        <v>40233374.71</v>
-      </c>
-      <c r="F7" s="6">
-        <v>40232981.74</v>
-      </c>
-      <c r="G7" s="7">
-        <v>392.97</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
-        <v>-0.0014</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="1" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45354913.57</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45353986.84</v>
-      </c>
-      <c r="G8" s="7">
-        <v>926.73</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>-0.0015</v>
+      <c r="N29">
+        <f>M29*(1+I28)</f>
+        <v>1.96876746</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="13:13">
+      <c r="M35" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
